--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/RandomForest_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/RandomForest_predicted_probs_1_features.xlsx
@@ -387,702 +387,702 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0</v>
+        <v>0.3217110886681897</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0</v>
+        <v>0.4387574571165585</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.8617780714166201</v>
+        <v>0.6304510334246463</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.8063878279438181</v>
+        <v>0.667156589616401</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.8063878279438181</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.8548815196924822</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.8063878279438181</v>
+        <v>0.7308554689605238</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.8063878279438181</v>
+        <v>0.5668684752442438</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0</v>
+        <v>0.3919722722100958</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.8063878279438181</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.8063878279438181</v>
+        <v>0.5898657101382051</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0</v>
+        <v>0.2623625713196708</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.8063878279438181</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.8617780714166201</v>
+        <v>0.4537375945565185</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.8063878279438181</v>
+        <v>0.667156589616401</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0</v>
+        <v>0.2623625713196708</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>0</v>
+        <v>0.4387574571165585</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>0</v>
+        <v>0.4387574571165585</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0</v>
+        <v>0.3538825013530257</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.3072357198887242</v>
+        <v>0.4287924019476867</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0</v>
+        <v>0.3919722722100958</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.009944751381215471</v>
+        <v>0.3132054386810895</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.009944751381215471</v>
+        <v>0.3420918732116484</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.009944751381215471</v>
+        <v>0.4634967357478491</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.009944751381215471</v>
+        <v>0.3535052046918344</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.1209755461442618</v>
+        <v>0.5208868690638846</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>0.9166592405862363</v>
+        <v>0.6639086938417523</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.009944751381215471</v>
+        <v>0.4232543568917317</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.009944751381215471</v>
+        <v>0.4770166881004399</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.08523886902827429</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.9166592405862363</v>
+        <v>0.4831741988561595</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.009944751381215471</v>
+        <v>0.3162249936949936</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.8908673148514643</v>
+        <v>0.6677623448877062</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>0.9166592405862363</v>
+        <v>0.6639086938417523</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.009944751381215471</v>
+        <v>0.3132054386810895</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.009944751381215471</v>
+        <v>0.3115156033646586</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>0.9166592405862363</v>
+        <v>0.6639086938417523</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.009944751381215471</v>
+        <v>0.4770166881004399</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.08523886902827429</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.009944751381215471</v>
+        <v>0.4770166881004399</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>0.9166592405862363</v>
+        <v>0.6639086938417523</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.009944751381215471</v>
+        <v>0.3420918732116484</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>0.9166592405862363</v>
+        <v>0.6639086938417523</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.1209755461442618</v>
+        <v>0.5208868690638846</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.9166592405862363</v>
+        <v>0.5419840952190634</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.3375388499887046</v>
+        <v>0.5344068214164754</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.8908673148514643</v>
+        <v>0.5344068214164754</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.009944751381215471</v>
+        <v>0.3097234457073775</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.009944751381215471</v>
+        <v>0.4042005554050929</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.04439508807475559</v>
+        <v>0.4954998616619493</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>1</v>
+        <v>0.5867294573852991</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.004395088074755593</v>
+        <v>0.2356388278474367</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.004395088074755593</v>
+        <v>0.2525038113266381</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.004395088074755593</v>
+        <v>0.4081844020372049</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.004395088074755593</v>
+        <v>0.3034010728034843</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>1</v>
+        <v>0.7839935733691462</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>0.004395088074755593</v>
+        <v>0.2525038113266381</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.9610695187165775</v>
+        <v>0.6987380967536267</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>1</v>
+        <v>0.6099338182056835</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.004395088074755593</v>
+        <v>0.2760313819737408</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.004395088074755593</v>
+        <v>0.3177008015551847</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.04439508807475559</v>
+        <v>0.4293319430208116</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>1</v>
+        <v>0.6987380967536267</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.004395088074755593</v>
+        <v>0.2993295894339726</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.004395088074755593</v>
+        <v>0.2760313819737408</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>1</v>
+        <v>0.6987380967536267</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>1</v>
+        <v>0.6987380967536267</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.004395088074755593</v>
+        <v>0.3177008015551847</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.004395088074755593</v>
+        <v>0.4081844020372049</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.004395088074755593</v>
+        <v>0.2849429907769929</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>0.004395088074755593</v>
+        <v>0.226624960358993</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0</v>
+        <v>0.2934017328958926</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.02723404255319149</v>
+        <v>0.4562303417980916</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.02723404255319149</v>
+        <v>0.41434405828863</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0</v>
+        <v>0.2849297671929924</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.02723404255319149</v>
+        <v>0.4081574401399866</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.9809182530795073</v>
+        <v>0.5811468144647676</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0</v>
+        <v>0.2849297671929924</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.1009182530795073</v>
+        <v>0.5244637942687133</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0</v>
+        <v>0.2849297671929924</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.9809182530795073</v>
+        <v>0.748100839344883</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0</v>
+        <v>0.3924652284617514</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.9809182530795073</v>
+        <v>0.7379987583790607</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.9809182530795073</v>
+        <v>0.748100839344883</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.9809182530795073</v>
+        <v>0.7379987583790607</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>0.9809182530795073</v>
+        <v>0.748100839344883</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.02723404255319149</v>
+        <v>0.41434405828863</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.9809182530795073</v>
+        <v>0.748100839344883</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.9809182530795073</v>
+        <v>0.6586374558948233</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.02723404255319149</v>
+        <v>0.3811285653125572</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.9809182530795073</v>
+        <v>0.5261605522950932</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.9809182530795073</v>
+        <v>0.5261605522950932</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0</v>
+        <v>0.2849297671929924</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.9809182530795073</v>
+        <v>0.748100839344883</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>0.9809182530795073</v>
+        <v>0.748100839344883</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0</v>
+        <v>0.2849297671929924</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.02723404255319149</v>
+        <v>0.41434405828863</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.9809182530795073</v>
+        <v>0.6586374558948233</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.2406230244248559</v>
+        <v>0.5862587295816669</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.2406230244248559</v>
+        <v>0.5862587295816669</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>0.9768254850918109</v>
+        <v>0.7960710818640037</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>0.1524403967723272</v>
+        <v>0.3300025786022253</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.1524403967723272</v>
+        <v>0.3641528284477988</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.367533079023605</v>
+        <v>0.5572999986665065</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.1524403967723272</v>
+        <v>0.3130994385264077</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.1524403967723272</v>
+        <v>0.3641528284477988</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.367533079023605</v>
+        <v>0.5178624178037722</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>0.9768254850918109</v>
+        <v>0.7960710818640037</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.1524403967723272</v>
+        <v>0.424483600452766</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.1524403967723272</v>
+        <v>0.424483600452766</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.2406230244248559</v>
+        <v>0.5862587295816669</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.1524403967723272</v>
+        <v>0.4482424265008101</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.367533079023605</v>
+        <v>0.591718793316546</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.1524403967723272</v>
+        <v>0.424483600452766</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.367533079023605</v>
+        <v>0.5178624178037722</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.1524403967723272</v>
+        <v>0.424483600452766</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.367533079023605</v>
+        <v>0.5572999986665065</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.367533079023605</v>
+        <v>0.5681538197763135</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.1524403967723272</v>
+        <v>0.4482424265008101</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>0.9768254850918109</v>
+        <v>0.7960710818640037</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>0.1524403967723272</v>
+        <v>0.3300025786022253</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.367533079023605</v>
+        <v>0.4955905777687675</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.1524403967723272</v>
+        <v>0.4482424265008101</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.367533079023605</v>
+        <v>0.4955905777687675</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.943641872733025</v>
+        <v>0.7736135147064226</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.1524403967723272</v>
+        <v>0.3218176890174715</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/RandomForest_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/RandomForest_predicted_probs_1_features.xlsx
@@ -392,7 +392,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.3217110886681897</v>
+        <v>0.3217110886681898</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -427,7 +427,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.7308554689605238</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -467,7 +467,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.2623625713196708</v>
+        <v>0.2623625713196709</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -477,7 +477,7 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.4537375945565185</v>
+        <v>0.4537375945565186</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -487,7 +487,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.2623625713196708</v>
+        <v>0.2623625713196709</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -507,7 +507,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.3538825013530257</v>
+        <v>0.3538825013530258</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -517,7 +517,7 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.4287924019476867</v>
+        <v>0.4287924019476868</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -527,22 +527,22 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.3132054386810895</v>
+        <v>0.3132054386810896</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.3420918732116484</v>
+        <v>0.3420918732116485</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4634967357478491</v>
+        <v>0.4634967357478492</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.3535052046918344</v>
+        <v>0.3535052046918346</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -562,7 +562,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>0.4770166881004399</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -577,7 +577,7 @@
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.3162249936949936</v>
+        <v>0.3162249936949937</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -592,12 +592,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.3132054386810895</v>
+        <v>0.3132054386810896</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.3115156033646586</v>
+        <v>0.3115156033646587</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -607,7 +607,7 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>0.4770166881004399</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -617,7 +617,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>0.4770166881004399</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -627,7 +627,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.3420918732116484</v>
+        <v>0.3420918732116485</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -642,7 +642,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>0.5419840952190634</v>
+        <v>0.5419840952190633</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -657,7 +657,7 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.3097234457073775</v>
+        <v>0.3097234457073776</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -672,12 +672,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.4954998616619493</v>
+        <v>0.4954998616619495</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.5867294573852991</v>
+        <v>0.5867294573852992</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -697,7 +697,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.4081844020372049</v>
+        <v>0.408184402037205</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -717,7 +717,7 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.6987380967536267</v>
+        <v>0.698738096753627</v>
       </c>
     </row>
     <row r="69" spans="1:1">
@@ -742,7 +742,7 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.6987380967536267</v>
+        <v>0.698738096753627</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -772,12 +772,12 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.6987380967536267</v>
+        <v>0.698738096753627</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.6987380967536267</v>
+        <v>0.698738096753627</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -792,7 +792,7 @@
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.4081844020372049</v>
+        <v>0.408184402037205</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -812,22 +812,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.4562303417980916</v>
+        <v>0.4562303417980915</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.41434405828863</v>
+        <v>0.4143440582886298</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.2849297671929924</v>
+        <v>0.2849297671929923</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.4081574401399866</v>
+        <v>0.4081574401399863</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -842,17 +842,17 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.2849297671929924</v>
+        <v>0.2849297671929923</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.5244637942687133</v>
+        <v>0.5244637942687131</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.2849297671929924</v>
+        <v>0.2849297671929923</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -862,7 +862,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.3924652284617514</v>
+        <v>0.3924652284617512</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -887,7 +887,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.41434405828863</v>
+        <v>0.4143440582886298</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -897,27 +897,27 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.6586374558948233</v>
+        <v>0.658637455894823</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.3811285653125572</v>
+        <v>0.3811285653125571</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.5261605522950932</v>
+        <v>0.5261605522950931</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.5261605522950932</v>
+        <v>0.5261605522950931</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.2849297671929924</v>
+        <v>0.2849297671929923</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -932,27 +932,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.2849297671929924</v>
+        <v>0.2849297671929923</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.41434405828863</v>
+        <v>0.4143440582886298</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.6586374558948233</v>
+        <v>0.658637455894823</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.5862587295816669</v>
+        <v>0.5862587295816668</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.5862587295816669</v>
+        <v>0.5862587295816668</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -967,27 +967,27 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.3641528284477988</v>
+        <v>0.3641528284477987</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.5572999986665065</v>
+        <v>0.5572999986665063</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.3130994385264077</v>
+        <v>0.3130994385264076</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.3641528284477988</v>
+        <v>0.3641528284477987</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.5178624178037722</v>
+        <v>0.5178624178037721</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -997,22 +997,22 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.424483600452766</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.424483600452766</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.5862587295816669</v>
+        <v>0.5862587295816668</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.4482424265008101</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -1022,32 +1022,32 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.424483600452766</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.5178624178037722</v>
+        <v>0.5178624178037721</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.424483600452766</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.5572999986665065</v>
+        <v>0.5572999986665063</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.5681538197763135</v>
+        <v>0.5681538197763133</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.4482424265008101</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -1062,27 +1062,27 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.4955905777687675</v>
+        <v>0.4955905777687674</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.4482424265008101</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.4955905777687675</v>
+        <v>0.4955905777687674</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.7736135147064226</v>
+        <v>0.7736135147064225</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.3218176890174715</v>
+        <v>0.3218176890174714</v>
       </c>
     </row>
   </sheetData>

--- a/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/RandomForest_predicted_probs_1_features.xlsx
+++ b/results/JayaFeaturesTrainPrepared/Sheet1/Prob_data/RandomForest_predicted_probs_1_features.xlsx
@@ -387,12 +387,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.4018497802066064</v>
+        <v>0.4054574134857192</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.3217110886681898</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -402,27 +402,27 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.6304510334246463</v>
+        <v>0.667156589616401</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.667156589616401</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.5447472631230317</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.5447472631230317</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.4018497802066064</v>
+        <v>0.4054574134857192</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -432,67 +432,67 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.4018497802066064</v>
+        <v>0.6192836984160932</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.5668684752442438</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.3919722722100958</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.5447472631230317</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.4018497802066064</v>
+        <v>0.4885202032521708</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.4018497802066064</v>
+        <v>0.4537375945565186</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>0.5898657101382051</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>0.2623625713196709</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>0.5447472631230317</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>0.4537375945565186</v>
+        <v>0.6071298654813873</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>0.667156589616401</v>
+        <v>0.7308554689605237</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>0.2623625713196709</v>
+        <v>0.4018497802066064</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>0.4018497802066064</v>
+        <v>0.4885202032521708</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -507,47 +507,47 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>0.3538825013530258</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>0.4018497802066064</v>
+        <v>0.4054574134857192</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>0.4287924019476868</v>
+        <v>0.5898657101382051</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>0.3919722722100958</v>
+        <v>0.5447472631230317</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>0.3132054386810896</v>
+        <v>0.3097234457073776</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>0.3420918732116485</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>0.4634967357478492</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>0.3535052046918346</v>
+        <v>0.3132054386810896</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>0.5208868690638846</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -557,7 +557,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>0.4232543568917317</v>
+        <v>0.3535052046918346</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -567,22 +567,22 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>0.4081730052021196</v>
+        <v>0.4035859563296353</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>0.4831741988561595</v>
+        <v>0.5556486585615851</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>0.3162249936949937</v>
+        <v>0.3420918732116485</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>0.6677623448877062</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -592,12 +592,12 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>0.3132054386810896</v>
+        <v>0.326124098968171</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>0.3115156033646587</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -612,7 +612,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>0.4081730052021196</v>
+        <v>0.4308701706195998</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -627,7 +627,7 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>0.3420918732116485</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="51" spans="1:1">
@@ -637,7 +637,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>0.5208868690638846</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -647,22 +647,22 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>0.5344068214164754</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>0.5344068214164754</v>
+        <v>0.4081730052021196</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>0.3097234457073776</v>
+        <v>0.47701668810044</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>0.4042005554050929</v>
+        <v>0.3132054386810896</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -672,12 +672,12 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>0.4954998616619495</v>
+        <v>0.6822419330707625</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>0.5867294573852992</v>
+        <v>0.6099338182056835</v>
       </c>
     </row>
     <row r="61" spans="1:1">
@@ -687,22 +687,22 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>0.2356388278474367</v>
+        <v>0.2222448371576356</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>0.2525038113266381</v>
+        <v>0.2849429907769929</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>0.408184402037205</v>
+        <v>0.4293319430208116</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>0.3034010728034843</v>
+        <v>0.4293319430208116</v>
       </c>
     </row>
     <row r="66" spans="1:1">
@@ -717,32 +717,32 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>0.698738096753627</v>
+        <v>0.626527594031262</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>0.6099338182056835</v>
+        <v>0.7540407405530243</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>0.2760313819737408</v>
+        <v>0.408184402037205</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>0.3177008015551847</v>
+        <v>0.2993295894339726</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>0.4293319430208116</v>
+        <v>0.4954998616619495</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>0.698738096753627</v>
+        <v>0.5867294573852992</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -757,12 +757,12 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>0.2993295894339726</v>
+        <v>0.2760313819737408</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>0.2760313819737408</v>
+        <v>0.3726330627856253</v>
       </c>
     </row>
     <row r="78" spans="1:1">
@@ -772,32 +772,32 @@
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>0.698738096753627</v>
+        <v>0.5867294573852992</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>0.698738096753627</v>
+        <v>0.5950627907186327</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>0.226624960358993</v>
+        <v>0.2222448371576356</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>0.3177008015551847</v>
+        <v>0.2993295894339726</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>0.408184402037205</v>
+        <v>0.4293319430208116</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>0.2849429907769929</v>
+        <v>0.3177008015551847</v>
       </c>
     </row>
     <row r="85" spans="1:1">
@@ -807,77 +807,77 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>0.2934017328958926</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>0.4562303417980915</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>0.4143440582886298</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>0.2849297671929923</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>0.4081574401399863</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>0.3301454614235655</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>0.5811468144647676</v>
+        <v>0.2934017328958926</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>0.2849297671929923</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>0.5244637942687131</v>
+        <v>0.2849297671929923</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>0.2849297671929923</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>0.748100839344883</v>
+        <v>0.5261605522950931</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>0.3924652284617512</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>0.7379987583790607</v>
+        <v>0.4679728058619361</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>0.748100839344883</v>
+        <v>0.5578776664975714</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>0.7379987583790607</v>
+        <v>0.4679728058619361</v>
       </c>
     </row>
     <row r="101" spans="1:1">
@@ -887,42 +887,42 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>0.4143440582886298</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>0.748100839344883</v>
+        <v>0.5261605522950931</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>0.658637455894823</v>
+        <v>0.3566773991021434</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>0.3811285653125571</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>0.5261605522950931</v>
+        <v>0.392371876623444</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>0.5261605522950931</v>
+        <v>0.3674554518163548</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>0.2849297671929923</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>0.748100839344883</v>
+        <v>0.658637455894823</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -932,27 +932,27 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>0.2849297671929923</v>
+        <v>0.3430445419597348</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>0.4143440582886298</v>
+        <v>0.3301454614235655</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>0.658637455894823</v>
+        <v>0.387925093373425</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>0.5862587295816668</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>0.5862587295816668</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="116" spans="1:1">
@@ -967,27 +967,27 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>0.3641528284477987</v>
+        <v>0.3300025786022253</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>0.5572999986665063</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>0.3130994385264076</v>
+        <v>0.3300025786022253</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>0.3641528284477987</v>
+        <v>0.3300025786022253</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>0.5178624178037721</v>
+        <v>0.5572999986665063</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -997,57 +997,57 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>0.4244836004527658</v>
+        <v>0.3686994551612188</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>0.4244836004527658</v>
+        <v>0.4055982005341751</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>0.5862587295816668</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>0.44824242650081</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>0.591718793316546</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>0.4244836004527658</v>
+        <v>0.3315500557125459</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>0.5178624178037721</v>
+        <v>0.5572999986665063</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>0.4244836004527658</v>
+        <v>0.3783205781525738</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>0.5572999986665063</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>0.5681538197763133</v>
+        <v>0.44824242650081</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>0.44824242650081</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -1062,27 +1062,27 @@
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>0.4955905777687674</v>
+        <v>0.5178624178037721</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>0.44824242650081</v>
+        <v>0.4244836004527658</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>0.4955905777687674</v>
+        <v>0.5036049709332948</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>0.7736135147064225</v>
+        <v>0.5241463770836783</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>0.3218176890174714</v>
+        <v>0.3300025786022253</v>
       </c>
     </row>
   </sheetData>
